--- a/biology/Zoologie/Geogarypus/Geogarypus.xlsx
+++ b/biology/Zoologie/Geogarypus/Geogarypus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geogarypus est un genre de pseudoscorpions de la famille des Geogarypidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, en Asie, en Amérique du Sud, en Océanie, en Europe du Sud et aux Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, en Asie, en Amérique du Sud, en Océanie, en Europe du Sud et aux Antilles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0) :
 Geogarypus albus Beier, 1963
 Geogarypus amazonicus Mahnert, 1979
 Geogarypus angulatus Chamberlin, 1930
@@ -604,8 +620,8 @@
 Geogarypus plusculus Cullen &amp; Harvey, 2021
 Geogarypus tectomaculatus Neethling &amp; Haddad, 2017
 Geogarypus variaspinosus Neethling &amp; Haddad, 2017
-Geogarypus nigrimanus a été placée en synonymie avec Geogarypus minor par Gardini, Galli et Zinni en 2017[2].
-Geogarypus minutus, Geogarypus purcelli, Geogarypus robustus et Geogarypus triangularis ont été placées dans le genre Afrogarypus par Neethling et Haddad en 2017[3].
+Geogarypus nigrimanus a été placée en synonymie avec Geogarypus minor par Gardini, Galli et Zinni en 2017.
+Geogarypus minutus, Geogarypus purcelli, Geogarypus robustus et Geogarypus triangularis ont été placées dans le genre Afrogarypus par Neethling et Haddad en 2017.
 </t>
         </is>
       </c>
@@ -634,10 +650,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Chamberlin en 1930 dans les Garypidae. Il est placé dans les Geogarypidae par Harvey en 1986[4].
-Indogarypus a été placé en synonymie par Novák et Harvey en 2019[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Chamberlin en 1930 dans les Garypidae. Il est placé dans les Geogarypidae par Harvey en 1986.
+Indogarypus a été placé en synonymie par Novák et Harvey en 2019.
 </t>
         </is>
       </c>
@@ -666,7 +684,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin, 1930 : « A synoptic classification of the false scorpions or chela-spinners, with a report on a cosmopolitan collection of the same. Part II. The Diplosphyronida (Arachnida-Chelonethida). » Annals and Magazine of Natural History, sér. 10, vol. 5, p. 1-48 &amp; 585-620.</t>
         </is>
